--- a/Docs/CanvasTransform.xlsx
+++ b/Docs/CanvasTransform.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitalbyopen-my.sharepoint.com/personal/dla19005_open-groupe_com/Documents/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DLA19005\source\repos\Catsfract\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{165C9897-78F0-4C1D-B6A0-59796AA28FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20C3DBB3-17FC-4CA5-BE43-25ADC3728649}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24631C58-F20F-43FD-B2A3-3C016C537766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12435" yWindow="600" windowWidth="23955" windowHeight="16935" xr2:uid="{80A8FE79-66DF-44D2-BA28-0E80CB61003E}"/>
+    <workbookView xWindow="11940" yWindow="1965" windowWidth="23955" windowHeight="16935" xr2:uid="{80A8FE79-66DF-44D2-BA28-0E80CB61003E}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="M_4x4">Plan!$H$19:$K$22</definedName>
+    <definedName name="M_Point">Plan!$M$19:$O$19</definedName>
+    <definedName name="M_Reflection">Plan!$H$31:$K$34</definedName>
+    <definedName name="M_Scaling">Plan!$H$37:$K$40</definedName>
+    <definedName name="M_Transformation">Plan!$H$19:$J$21</definedName>
+    <definedName name="M_TransformationTranslation">Plan!$H$22:$J$22</definedName>
+    <definedName name="M_Translation">Plan!$H$25:$K$28</definedName>
+    <definedName name="M_Vector">Plan!$D$19:$F$19</definedName>
     <definedName name="P_A">Plan!$X$8</definedName>
     <definedName name="P_B">Plan!$X$9</definedName>
     <definedName name="P_Height">Plan!$X$3</definedName>
     <definedName name="P_I">Plan!$X$6</definedName>
     <definedName name="P_Icomplex">Plan!$X$13</definedName>
     <definedName name="P_Iorigin">Plan!$X$12</definedName>
+    <definedName name="P_Scale">Plan!$X$7</definedName>
     <definedName name="P_Width">Plan!$X$2</definedName>
     <definedName name="P_X">Plan!$X$4</definedName>
     <definedName name="P_Xorigin">Plan!$X$10</definedName>
     <definedName name="P_Y">Plan!$X$5</definedName>
     <definedName name="P_Yorigin">Plan!$X$11</definedName>
-    <definedName name="P_Zoom">Plan!$X$7</definedName>
     <definedName name="T_DATA">Plan!$C$3:$T$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,8 +55,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>X</t>
   </si>
@@ -71,9 +101,6 @@
     <t>Height</t>
   </si>
   <si>
-    <t>Zoom</t>
-  </si>
-  <si>
     <t>Xorigin</t>
   </si>
   <si>
@@ -84,6 +111,33 @@
   </si>
   <si>
     <t>Icomplex</t>
+  </si>
+  <si>
+    <t>Vector3</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Inverse</t>
+  </si>
+  <si>
+    <t>From Point</t>
   </si>
 </sst>
 </file>
@@ -113,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +204,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -163,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,11 +274,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -275,589 +377,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF99FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1166,95 +695,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1AB809-8BFC-433B-8F40-9FF15548EC40}">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
-    <col min="3" max="14" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15" max="20" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C1" s="4">
-        <f>(C$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.17</v>
+        <f t="shared" ref="C1:T1" si="0">(C$2-P_Xorigin)/P_Scale</f>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D1" s="4">
-        <f>(D$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.16</v>
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
       </c>
       <c r="E1" s="4">
-        <f>(E$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.15</v>
+        <f t="shared" si="0"/>
+        <v>-1.4E-2</v>
       </c>
       <c r="F1" s="4">
-        <f>(F$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>-1.2E-2</v>
       </c>
       <c r="G1" s="4">
-        <f>(G$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.13</v>
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
       </c>
       <c r="H1" s="4">
-        <f>(H$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.12</v>
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="I1" s="4">
-        <f>(I$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.11</v>
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="J1" s="4">
-        <f>(J$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.1</v>
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="K1" s="4">
-        <f>(K$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.09</v>
+        <f t="shared" si="0"/>
+        <v>-2E-3</v>
       </c>
       <c r="L1" s="4">
-        <f>(L$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.08</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M1" s="4">
-        <f>(M$2-P_Xorigin)/P_Zoom</f>
-        <v>-7.0000000000000007E-2</v>
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
       </c>
       <c r="N1" s="4">
-        <f>(N$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.06</v>
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O1" s="4">
-        <f>(O$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.05</v>
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P1" s="4">
-        <f>(P$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.04</v>
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q1" s="4">
-        <f>(Q$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.03</v>
+        <f t="shared" si="0"/>
+        <v>0.01</v>
       </c>
       <c r="R1" s="4">
-        <f>(R$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.02</v>
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
       </c>
       <c r="S1" s="4">
-        <f>(S$2-P_Xorigin)/P_Zoom</f>
-        <v>-0.01</v>
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
       </c>
       <c r="T1" s="4">
-        <f>(T$2-P_Xorigin)/P_Zoom</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>2</v>
@@ -1269,67 +802,67 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:T2" si="0">D2+1</f>
+        <f t="shared" ref="E2:T2" si="1">D2+1</f>
         <v>2</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="R2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="U2" s="6" t="s">
@@ -1345,8 +878,8 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>(P_Yorigin-$B3)/P_Zoom</f>
-        <v>0.06</v>
+        <f t="shared" ref="A3:A15" si="2">(P_Yorigin-$B3)/P_Scale</f>
+        <v>1.2E-2</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -1359,81 +892,80 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:T3" si="1">D3+1</f>
+        <f t="shared" ref="E3:T3" si="3">D3+1</f>
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="W3" t="s">
         <v>6</v>
       </c>
       <c r="X3" s="9">
-        <f>ROW(B15)-ROW(B3)+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>(P_Yorigin-$B4)/P_Zoom</f>
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="B4" s="3">
         <f>B3+1</f>
@@ -1444,71 +976,71 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:T4" si="2">C4+1</f>
+        <f t="shared" ref="D4:T4" si="4">C4+1</f>
         <v>19</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="W4" t="s">
@@ -1516,88 +1048,88 @@
       </c>
       <c r="X4">
         <f>P_I-P_Y*P_Width</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>(P_Yorigin-$B5)/P_Zoom</f>
-        <v>0.04</v>
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B15" si="3">B4+1</f>
+        <f t="shared" ref="B5:B15" si="5">B4+1</f>
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C15" si="4">T4+1</f>
+        <f t="shared" ref="C5:C15" si="6">T4+1</f>
         <v>36</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:T5" si="5">C5+1</f>
+        <f t="shared" ref="D5:T5" si="7">C5+1</f>
         <v>37</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="W5" t="s">
@@ -1605,534 +1137,534 @@
       </c>
       <c r="X5">
         <f>QUOTIENT(P_I,P_Width)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>(P_Yorigin-$B6)/P_Zoom</f>
-        <v>0.03</v>
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:T6" si="6">C6+1</f>
+        <f t="shared" ref="D6:T6" si="8">C6+1</f>
         <v>55</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="W6" t="s">
         <v>4</v>
       </c>
       <c r="X6" s="9">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>(P_Yorigin-$B7)/P_Zoom</f>
-        <v>0.02</v>
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:T7" si="7">C7+1</f>
+        <f t="shared" ref="D7:T7" si="9">C7+1</f>
         <v>73</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="W7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X7" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>(P_Yorigin-$B8)/P_Zoom</f>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:T8" si="8">C8+1</f>
+        <f t="shared" ref="D8:T8" si="10">C8+1</f>
         <v>91</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="W8" t="s">
         <v>2</v>
       </c>
       <c r="X8">
-        <f>(P_X-P_Xorigin)/P_Zoom</f>
-        <v>-0.15</v>
+        <f>(P_X-P_Xorigin)/P_Scale</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>(P_Yorigin-$B9)/P_Zoom</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:T9" si="9">C9+1</f>
+        <f t="shared" ref="D9:T9" si="11">C9+1</f>
         <v>109</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>116</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>119</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>122</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>124</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="W9" t="s">
         <v>3</v>
       </c>
       <c r="X9">
-        <f>(P_Yorigin-P_Y)/P_Zoom</f>
-        <v>-0.04</v>
+        <f>(P_Yorigin-P_Y)/P_Scale</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>(P_Yorigin-$B10)/P_Zoom</f>
-        <v>-0.01</v>
+        <f t="shared" si="2"/>
+        <v>-2E-3</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:T10" si="10">C10+1</f>
+        <f t="shared" ref="D10:T10" si="12">C10+1</f>
         <v>127</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>129</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>134</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>137</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>139</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>141</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="W10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X10" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>(P_Yorigin-$B11)/P_Zoom</f>
-        <v>-0.02</v>
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:T11" si="11">C11+1</f>
+        <f t="shared" ref="D11:T11" si="13">C11+1</f>
         <v>145</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>146</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>147</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>148</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>149</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>151</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>152</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>153</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>154</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>155</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>156</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>157</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>158</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>159</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>160</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>161</v>
       </c>
       <c r="W11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X11" s="9">
         <v>6</v>
@@ -2140,343 +1672,343 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>(P_Yorigin-$B12)/P_Zoom</f>
-        <v>-0.03</v>
+        <f t="shared" si="2"/>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:T12" si="12">C12+1</f>
+        <f t="shared" ref="D12:T12" si="14">C12+1</f>
         <v>163</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>164</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>165</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>166</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>167</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>168</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>169</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>171</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>172</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>173</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>174</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>175</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>176</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>177</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>178</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>179</v>
       </c>
       <c r="W12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X12">
         <f>P_Yorigin*P_Width+P_Xorigin</f>
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>(P_Yorigin-$B13)/P_Zoom</f>
-        <v>-0.04</v>
+        <f t="shared" si="2"/>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:T13" si="13">C13+1</f>
+        <f t="shared" ref="D13:T13" si="15">C13+1</f>
         <v>181</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>182</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>183</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>184</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>185</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>186</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>187</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>188</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>189</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>190</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>191</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>192</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>193</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>194</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>195</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>196</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197</v>
       </c>
       <c r="W13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X13">
-        <f>(P_Yorigin-P_Zoom*P_B)*P_Width+P_Zoom*P_A+P_Xorigin</f>
-        <v>182</v>
+        <f>(P_Yorigin-P_B/P_Scale)*P_Width+P_A/P_Scale+P_Xorigin</f>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>(P_Yorigin-$B14)/P_Zoom</f>
-        <v>-0.05</v>
+        <f t="shared" si="2"/>
+        <v>-0.01</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:T14" si="14">C14+1</f>
+        <f t="shared" ref="D14:T14" si="16">C14+1</f>
         <v>199</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>201</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>202</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>203</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>204</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>205</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>206</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>207</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>208</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>209</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>210</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>211</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>212</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>213</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>214</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>(P_Yorigin-$B15)/P_Zoom</f>
-        <v>-0.06</v>
+        <f t="shared" si="2"/>
+        <v>-1.2E-2</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:T15" si="15">C15+1</f>
+        <f t="shared" ref="D15:T15" si="17">C15+1</f>
         <v>217</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>218</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>219</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>220</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>221</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>222</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>223</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>224</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>225</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>226</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>227</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>228</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>229</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>230</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>231</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>232</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>233</v>
       </c>
     </row>
@@ -2489,6 +2021,354 @@
       </c>
       <c r="U16" s="7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="13">
+        <f>P_X</f>
+        <v>9</v>
+      </c>
+      <c r="E19" s="13">
+        <f>P_Y</f>
+        <v>6</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12" cm="1">
+        <f t="array" ref="H19:K22">MMULT(MMULT(M_Translation,M_Reflection),M_Scaling)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14" cm="1">
+        <f t="array" ref="M19:O19">MMULT(M_Vector,M_Transformation)+M_TransformationTranslation</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15" cm="1">
+        <f t="array" ref="Q19:T22">MINVERSE(M_4x4)</f>
+        <v>499.99999999999994</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>-2E-3</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>-500</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0</v>
+      </c>
+      <c r="R21" s="15">
+        <v>0</v>
+      </c>
+      <c r="S21" s="15">
+        <v>500</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="15" cm="1">
+        <f t="array" ref="D22:F22">MMULT(M_Point,Q19:S21)+Q22:S22</f>
+        <v>9</v>
+      </c>
+      <c r="E22" s="15">
+        <v>6</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>-1.8000000000000002E-2</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>9</v>
+      </c>
+      <c r="R22" s="15">
+        <v>6</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H24" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H28" s="11">
+        <f>-P_Xorigin</f>
+        <v>-9</v>
+      </c>
+      <c r="I28" s="11">
+        <f>-P_Yorigin</f>
+        <v>-6</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H30" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>1</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H36" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H37" s="11">
+        <f>1/P_Scale</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <f>1/P_Scale</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <f>1/P_Scale</f>
+        <v>2E-3</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2532,6 +2412,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002B90817BE26D8B4A92786A27961B9F21" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="da7bbb63b6c9501daf80c8ef9a1f9059">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2b66baef-c24c-4c51-a3e1-a035807d9e48" xmlns:ns4="4889dad0-9924-4838-a5f2-e548f3360830" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54c254d22882ac193fac098790b4fbf0" ns3:_="" ns4:_="">
     <xsd:import namespace="2b66baef-c24c-4c51-a3e1-a035807d9e48"/>
@@ -2740,22 +2635,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245501A8-F985-4E45-8D74-7714A2217DF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{309AC706-7229-4443-9D8A-977D90E06607}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2b66baef-c24c-4c51-a3e1-a035807d9e48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4889dad0-9924-4838-a5f2-e548f3360830"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CB88F0-A41D-4A38-B83D-6FB792E93C7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2772,29 +2677,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245501A8-F985-4E45-8D74-7714A2217DF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{309AC706-7229-4443-9D8A-977D90E06607}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2b66baef-c24c-4c51-a3e1-a035807d9e48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4889dad0-9924-4838-a5f2-e548f3360830"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>